--- a/DataTable/GameDataTable.xlsx
+++ b/DataTable/GameDataTable.xlsx
@@ -5,11 +5,11 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GP2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GP2025\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="4294939910" windowHeight="19120" tabRatio="500" activeTab="2"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="25350" windowHeight="9520" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="UserStatTable" sheetId="1" r:id="rId4"/>
@@ -26,6 +26,87 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="108">
   <x:si>
+    <x:t>TUClothes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>atk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>idx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Key</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EXP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bow</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>move_spd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>range_atk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Whirlwind</x:t>
+  </x:si>
+  <x:si>
+    <x:t>crt_rate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>crt_value</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Throwing</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M_KeyBoard</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M_Desktop</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Exp_high</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gold_high</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sector_atk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PulseSword</x:t>
+  </x:si>
+  <x:si>
+    <x:t>skil_group</x:t>
+  </x:si>
+  <x:si>
+    <x:t>buff_time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PracSword</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M_Coffee</x:t>
+  </x:si>
+  <x:si>
+    <x:t>monster_id</x:t>
+  </x:si>
+  <x:si>
     <x:t>ItemName</x:t>
   </x:si>
   <x:si>
@@ -35,319 +116,238 @@
     <x:t>drop_rate</x:t>
   </x:si>
   <x:si>
-    <x:t>monster_id</x:t>
-  </x:si>
-  <x:si>
     <x:t>FThrowing</x:t>
   </x:si>
   <x:si>
-    <x:t>Throwing</x:t>
-  </x:si>
-  <x:si>
-    <x:t>skil_group</x:t>
-  </x:si>
-  <x:si>
-    <x:t>crt_value</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gold_high</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Exp_high</x:t>
-  </x:si>
-  <x:si>
-    <x:t>move_spd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>range_atk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sector_atk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Whirlwind</x:t>
-  </x:si>
-  <x:si>
-    <x:t>crt_rate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>buff_time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PulseSword</x:t>
-  </x:si>
-  <x:si>
-    <x:t>M_Desktop</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PracSword</x:t>
-  </x:si>
-  <x:si>
-    <x:t>M_KeyBoard</x:t>
-  </x:si>
-  <x:si>
-    <x:t>M_Coffee</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TUClothes</x:t>
+    <x:t>skill_lv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>item_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HpKit_high</x:t>
+  </x:si>
+  <x:si>
+    <x:t>consumable</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HpKit_low</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AlloyHelmet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gold_low</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PulseGun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AtkBooster</x:t>
   </x:si>
   <x:si>
     <x:t>Exp_field</x:t>
   </x:si>
   <x:si>
-    <x:t>Gold_low</x:t>
-  </x:si>
-  <x:si>
-    <x:t>item_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EXP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lv</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Key</x:t>
-  </x:si>
-  <x:si>
-    <x:t>atk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>hp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>idx</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> </x:t>
-  </x:si>
-  <x:si>
-    <x:t>bow</x:t>
-  </x:si>
-  <x:si>
     <x:t>TitanChest</x:t>
   </x:si>
   <x:si>
-    <x:t>HpKit_low</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AtkBooster</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AlloyHelmet</x:t>
-  </x:si>
-  <x:si>
     <x:t>cooltime</x:t>
   </x:si>
   <x:si>
-    <x:t>PulseGun</x:t>
-  </x:si>
-  <x:si>
-    <x:t>skill_lv</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HpKit_high</x:t>
-  </x:si>
-  <x:si>
-    <x:t>consumable</x:t>
+    <x:t>Document</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Positron</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EnergySword</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gold_field</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M_BoltNut</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M_DrillBoss</x:t>
+  </x:si>
+  <x:si>
+    <x:t>atc_buff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ItemIndex</x:t>
   </x:si>
   <x:si>
     <x:t>M_Cogwheel</x:t>
   </x:si>
   <x:si>
-    <x:t>Positron</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gold_field</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Document</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EnergySword</x:t>
-  </x:si>
-  <x:si>
     <x:t>Gold_mid</x:t>
   </x:si>
   <x:si>
-    <x:t>M_BoltNut</x:t>
-  </x:si>
-  <x:si>
-    <x:t>atc_buff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>M_DrillBoss</x:t>
-  </x:si>
-  <x:si>
     <x:t>M_BubbleTea</x:t>
   </x:si>
   <x:si>
     <x:t>bIsMonster</x:t>
   </x:si>
   <x:si>
-    <x:t>Hp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ItemIndex</x:t>
+    <x:t>AbilityType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DetailType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>unuseable</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DodgeRate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bCanResell</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Category</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MoveSpeed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ResellPrice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>skill_value_00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>skill_type_01</x:t>
   </x:si>
   <x:si>
     <x:t>required_exp</x:t>
   </x:si>
   <x:si>
+    <x:t>EnhanceChest</x:t>
+  </x:si>
+  <x:si>
     <x:t>M_EnergyDrink</x:t>
   </x:si>
   <x:si>
-    <x:t>skill_type_01</x:t>
+    <x:t>EnhanceHelmet</x:t>
   </x:si>
   <x:si>
     <x:t>M_DecadenceTino</x:t>
   </x:si>
   <x:si>
-    <x:t>EnhanceChest</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EnhanceHelmet</x:t>
-  </x:si>
-  <x:si>
     <x:t>cumulative_exp</x:t>
   </x:si>
   <x:si>
-    <x:t>AbilityType</x:t>
-  </x:si>
-  <x:si>
-    <x:t>skill_value_00</x:t>
+    <x:t>skill_value_01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AbilityValue</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CriticalRate</x:t>
   </x:si>
   <x:si>
     <x:t>skill_type_00</x:t>
   </x:si>
   <x:si>
-    <x:t>skill_value_01</x:t>
+    <x:t>BirdGun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Coffee</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Suit</x:t>
   </x:si>
   <x:si>
     <x:t>dodge</x:t>
   </x:si>
   <x:si>
+    <x:t>Mangba</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ddalba</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dash</x:t>
+  </x:si>
+  <x:si>
+    <x:t>chapter</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HitHard</x:t>
+  </x:si>
+  <x:si>
+    <x:t>atk_spd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Anger</x:t>
+  </x:si>
+  <x:si>
+    <x:t>recove</x:t>
+  </x:si>
+  <x:si>
+    <x:t>useable</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M_Mouse</x:t>
+  </x:si>
+  <x:si>
+    <x:t>armor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Exp_low</x:t>
+  </x:si>
+  <x:si>
     <x:t>level</x:t>
   </x:si>
   <x:si>
-    <x:t>BirdGun</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Suit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Coffee</x:t>
-  </x:si>
-  <x:si>
-    <x:t>atk_spd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ddalba</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mangba</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Exp_low</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dash</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HitHard</x:t>
-  </x:si>
-  <x:si>
-    <x:t>useable</x:t>
-  </x:si>
-  <x:si>
-    <x:t>chapter</x:t>
-  </x:si>
-  <x:si>
     <x:t>weapon</x:t>
   </x:si>
   <x:si>
-    <x:t>recove</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>M_Mouse</x:t>
-  </x:si>
-  <x:si>
-    <x:t>armor</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Anger</x:t>
+    <x:t>value</x:t>
+  </x:si>
+  <x:si>
+    <x:t>helmet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Attack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Price</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sword</x:t>
+  </x:si>
+  <x:si>
+    <x:t>chest</x:t>
   </x:si>
   <x:si>
     <x:t>Quest</x:t>
   </x:si>
   <x:si>
-    <x:t>value</x:t>
-  </x:si>
-  <x:si>
-    <x:t>helmet</x:t>
+    <x:t>item_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Exp_mid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clash</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grade</x:t>
   </x:si>
   <x:si>
     <x:t>is_boss</x:t>
   </x:si>
   <x:si>
-    <x:t>Exp_mid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>chest</x:t>
-  </x:si>
-  <x:si>
-    <x:t>item_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sword</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clash</x:t>
+    <x:t>bIsBuy</x:t>
   </x:si>
   <x:si>
     <x:t>name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>unuseable</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AbilityValue</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DetailType</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CriticalRate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Category</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Grade</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bIsBuy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Attack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Price</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DodgeRate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MoveSpeed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ResellPrice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bCanResell</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -552,6 +552,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -634,6 +635,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -668,6 +670,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -712,6 +715,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -755,6 +759,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -839,6 +844,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -859,6 +865,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -889,6 +896,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1256,33 +1264,33 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:G11"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScale="210" zoomScaleNormal="210" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="F24" activeCellId="0" sqref="F24:F24"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="210" zoomScaleNormal="210" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="H11" activeCellId="0" sqref="H11:H11"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.66015625" defaultRowHeight="16.39999999999999857891"/>
   <x:sheetData>
     <x:row r="1" spans="1:7">
       <x:c r="A1" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E1" s="1" t="s">
         <x:v>14</x:v>
-      </x:c>
-      <x:c r="E1" s="1" t="s">
-        <x:v>7</x:v>
       </x:c>
       <x:c r="F1" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="G1" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:7">
@@ -1534,31 +1542,31 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="21.39999999999999857891">
       <x:c r="A1" s="3" t="s">
-        <x:v>30</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="3" t="s">
-        <x:v>94</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C1" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D1" s="3" t="s">
-        <x:v>39</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E1" s="3" t="s">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F1" s="3" t="s">
-        <x:v>64</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="G1" s="3" t="s">
         <x:v>63</x:v>
       </x:c>
       <x:c r="H1" s="3" t="s">
-        <x:v>57</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="I1" s="3" t="s">
-        <x:v>65</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:9">
@@ -1566,7 +1574,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="4" t="s">
-        <x:v>76</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C2" s="4">
         <x:v>1</x:v>
@@ -1578,16 +1586,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F2" s="4" t="s">
-        <x:v>28</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G2" s="4">
         <x:v>150</x:v>
       </x:c>
       <x:c r="H2" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I2" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -1595,7 +1603,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B3" s="4" t="s">
-        <x:v>76</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C3" s="4">
         <x:v>1</x:v>
@@ -1607,16 +1615,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F3" s="4" t="s">
-        <x:v>28</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G3" s="4">
         <x:v>175</x:v>
       </x:c>
       <x:c r="H3" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I3" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -1624,7 +1632,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B4" s="4" t="s">
-        <x:v>76</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C4" s="4">
         <x:v>1</x:v>
@@ -1636,16 +1644,16 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F4" s="4" t="s">
-        <x:v>28</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G4" s="4">
         <x:v>200</x:v>
       </x:c>
       <x:c r="H4" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I4" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -1653,7 +1661,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B5" s="4" t="s">
-        <x:v>93</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C5" s="4">
         <x:v>2</x:v>
@@ -1665,13 +1673,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F5" s="4" t="s">
-        <x:v>28</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G5" s="4">
         <x:v>175</x:v>
       </x:c>
       <x:c r="H5" s="4" t="s">
-        <x:v>75</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="I5" s="4">
         <x:v>2</x:v>
@@ -1682,7 +1690,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B6" s="4" t="s">
-        <x:v>93</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C6" s="4">
         <x:v>2</x:v>
@@ -1694,13 +1702,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F6" s="4" t="s">
-        <x:v>28</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G6" s="4">
         <x:v>200</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>75</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="I6" s="4">
         <x:v>3</x:v>
@@ -1711,7 +1719,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B7" s="4" t="s">
-        <x:v>93</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C7" s="4">
         <x:v>2</x:v>
@@ -1723,13 +1731,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F7" s="4" t="s">
-        <x:v>28</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G7" s="4">
         <x:v>225</x:v>
       </x:c>
       <x:c r="H7" s="4" t="s">
-        <x:v>75</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="I7" s="4">
         <x:v>4</x:v>
@@ -1740,7 +1748,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B8" s="4" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C8" s="4">
         <x:v>3</x:v>
@@ -1752,7 +1760,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="F8" s="4" t="s">
-        <x:v>28</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G8" s="4">
         <x:v>200</x:v>
@@ -1769,7 +1777,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B9" s="4" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C9" s="4">
         <x:v>3</x:v>
@@ -1781,7 +1789,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F9" s="4" t="s">
-        <x:v>28</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G9" s="4">
         <x:v>225</x:v>
@@ -1798,7 +1806,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B10" s="4" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="4">
         <x:v>3</x:v>
@@ -1810,7 +1818,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F10" s="4" t="s">
-        <x:v>28</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G10" s="4">
         <x:v>250</x:v>
@@ -1827,7 +1835,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B11" s="4" t="s">
-        <x:v>5</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C11" s="4">
         <x:v>4</x:v>
@@ -1839,16 +1847,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="F11" s="4" t="s">
-        <x:v>28</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G11" s="4">
         <x:v>200</x:v>
       </x:c>
       <x:c r="H11" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I11" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -1856,7 +1864,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B12" s="4" t="s">
-        <x:v>5</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C12" s="4">
         <x:v>4</x:v>
@@ -1868,16 +1876,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F12" s="4" t="s">
-        <x:v>28</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G12" s="4">
         <x:v>250</x:v>
       </x:c>
       <x:c r="H12" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I12" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
@@ -1885,7 +1893,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B13" s="4" t="s">
-        <x:v>5</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C13" s="4">
         <x:v>4</x:v>
@@ -1897,16 +1905,16 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F13" s="4" t="s">
-        <x:v>28</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G13" s="4">
         <x:v>300</x:v>
       </x:c>
       <x:c r="H13" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I13" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -1914,7 +1922,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B14" s="4" t="s">
-        <x:v>4</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C14" s="4">
         <x:v>5</x:v>
@@ -1926,13 +1934,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F14" s="4" t="s">
-        <x:v>28</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G14" s="4">
         <x:v>80</x:v>
       </x:c>
       <x:c r="H14" s="4" t="s">
-        <x:v>12</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I14" s="4">
         <x:v>5</x:v>
@@ -1943,7 +1951,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B15" s="4" t="s">
-        <x:v>4</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C15" s="4">
         <x:v>5</x:v>
@@ -1955,13 +1963,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="F15" s="4" t="s">
-        <x:v>28</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G15" s="4">
         <x:v>90</x:v>
       </x:c>
       <x:c r="H15" s="4" t="s">
-        <x:v>12</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I15" s="4">
         <x:v>7</x:v>
@@ -1972,7 +1980,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B16" s="4" t="s">
-        <x:v>4</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C16" s="4">
         <x:v>5</x:v>
@@ -1984,13 +1992,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F16" s="4" t="s">
-        <x:v>28</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G16" s="4">
         <x:v>100</x:v>
       </x:c>
       <x:c r="H16" s="4" t="s">
-        <x:v>12</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I16" s="4">
         <x:v>9</x:v>
@@ -2001,7 +2009,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B17" s="4" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C17" s="4">
         <x:v>6</x:v>
@@ -2013,13 +2021,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F17" s="4" t="s">
-        <x:v>15</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G17" s="4">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H17" s="4" t="s">
-        <x:v>71</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="I17" s="4">
         <x:v>50</x:v>
@@ -2030,7 +2038,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B18" s="4" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C18" s="4">
         <x:v>6</x:v>
@@ -2042,13 +2050,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F18" s="4" t="s">
-        <x:v>15</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G18" s="4">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H18" s="4" t="s">
-        <x:v>71</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="I18" s="4">
         <x:v>75</x:v>
@@ -2059,7 +2067,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B19" s="4" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C19" s="4">
         <x:v>6</x:v>
@@ -2071,13 +2079,13 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="F19" s="4" t="s">
-        <x:v>15</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G19" s="4">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H19" s="4" t="s">
-        <x:v>71</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="I19" s="4">
         <x:v>100</x:v>
@@ -2094,63 +2102,63 @@
   <x:sheetPr codeName="Sheet3"/>
   <x:dimension ref="A1:Q30"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="180" zoomScaleNormal="180" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="H20" activeCellId="0" sqref="H20:H20"/>
+    <x:sheetView topLeftCell="A1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.66015625" defaultRowHeight="16.39999999999999857891"/>
   <x:sheetData>
     <x:row r="1" spans="1:17">
       <x:c r="A1" s="3" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B1" s="3" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C1" s="3" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D1" s="3" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="E1" s="3" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="F1" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G1" s="3" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="H1" s="3" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="I1" s="3" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="J1" s="3" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="K1" s="3" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="L1" s="3" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="M1" s="3" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="B1" s="3" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C1" s="3" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="D1" s="3" t="s">
+      <x:c r="N1" s="3" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="O1" s="3" t="s">
         <x:v>97</x:v>
       </x:c>
-      <x:c r="E1" s="3" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="F1" s="3" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="G1" s="3" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="H1" s="3" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="I1" s="3" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="J1" s="3" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="K1" s="3" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="L1" s="3" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="M1" s="3" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="N1" s="3" t="s">
+      <x:c r="P1" s="3" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="Q1" s="3" t="s">
         <x:v>106</x:v>
-      </x:c>
-      <x:c r="O1" s="3" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="P1" s="3" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="Q1" s="3" t="s">
-        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:17">
@@ -2158,13 +2166,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="4" t="s">
-        <x:v>68</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C2" s="4" t="s">
-        <x:v>79</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D2" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="4">
         <x:v>5</x:v>
@@ -2182,10 +2190,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="K2" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="L2" s="4">
         <x:v>1</x:v>
@@ -2214,10 +2222,10 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="C3" s="4" t="s">
-        <x:v>79</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D3" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E3" s="4">
         <x:v>15</x:v>
@@ -2235,10 +2243,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J3" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="K3" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="L3" s="4">
         <x:v>2</x:v>
@@ -2264,13 +2272,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B4" s="4" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C4" s="4" t="s">
-        <x:v>79</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D4" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E4" s="4">
         <x:v>30</x:v>
@@ -2288,10 +2296,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J4" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="K4" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="L4" s="4">
         <x:v>3</x:v>
@@ -2317,13 +2325,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B5" s="4" t="s">
-        <x:v>18</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C5" s="4" t="s">
-        <x:v>79</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D5" s="4" t="s">
-        <x:v>92</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E5" s="4">
         <x:v>8</x:v>
@@ -2341,10 +2349,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J5" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="K5" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="L5" s="4">
         <x:v>1</x:v>
@@ -2370,13 +2378,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B6" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C6" s="4" t="s">
-        <x:v>79</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>92</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E6" s="4">
         <x:v>20</x:v>
@@ -2394,10 +2402,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J6" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="K6" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="L6" s="4">
         <x:v>2</x:v>
@@ -2423,13 +2431,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B7" s="4" t="s">
-        <x:v>46</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C7" s="4" t="s">
-        <x:v>79</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>92</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>40</x:v>
@@ -2447,10 +2455,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J7" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="K7" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="L7" s="4">
         <x:v>3</x:v>
@@ -2479,10 +2487,10 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="C8" s="4" t="s">
-        <x:v>83</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>87</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E8" s="4">
         <x:v>0</x:v>
@@ -2500,10 +2508,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J8" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="K8" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="L8" s="4">
         <x:v>1</x:v>
@@ -2529,13 +2537,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B9" s="4" t="s">
-        <x:v>60</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C9" s="4" t="s">
-        <x:v>83</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>87</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E9" s="4">
         <x:v>0</x:v>
@@ -2553,10 +2561,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J9" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="K9" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="L9" s="4">
         <x:v>2</x:v>
@@ -2582,13 +2590,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B10" s="4" t="s">
-        <x:v>33</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C10" s="4" t="s">
-        <x:v>83</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>90</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E10" s="4">
         <x:v>0</x:v>
@@ -2606,10 +2614,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="J10" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="K10" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="L10" s="4">
         <x:v>1</x:v>
@@ -2635,13 +2643,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B11" s="4" t="s">
-        <x:v>59</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C11" s="4" t="s">
-        <x:v>83</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>90</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E11" s="4">
         <x:v>0</x:v>
@@ -2659,10 +2667,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J11" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="K11" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="L11" s="4">
         <x:v>2</x:v>
@@ -2688,29 +2696,29 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B12" s="4" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C12" s="4" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D12" s="4" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="C12" s="4" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="D12" s="4" t="s">
-        <x:v>41</x:v>
-      </x:c>
       <x:c r="E12" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F12" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G12" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H12" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I12" s="4"/>
       <x:c r="J12" s="4" t="s">
-        <x:v>80</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="K12" s="4">
         <x:v>100</x:v>
@@ -2722,10 +2730,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N12" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="O12" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="P12" s="4">
         <x:v>0</x:v>
@@ -2739,29 +2747,29 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B13" s="4" t="s">
-        <x:v>1</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C13" s="4" t="s">
-        <x:v>77</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D13" s="4" t="s">
-        <x:v>41</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E13" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F13" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G13" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H13" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I13" s="4"/>
       <x:c r="J13" s="4" t="s">
-        <x:v>80</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="K13" s="4">
         <x:v>200</x:v>
@@ -2773,10 +2781,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N13" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="O13" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="P13" s="4">
         <x:v>0</x:v>
@@ -2790,29 +2798,29 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B14" s="4" t="s">
-        <x:v>40</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C14" s="4" t="s">
-        <x:v>77</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D14" s="4" t="s">
-        <x:v>41</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E14" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F14" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G14" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H14" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I14" s="4"/>
       <x:c r="J14" s="4" t="s">
-        <x:v>80</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="K14" s="4">
         <x:v>300</x:v>
@@ -2824,10 +2832,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N14" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="O14" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="P14" s="4">
         <x:v>0</x:v>
@@ -2841,25 +2849,25 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B15" s="4" t="s">
-        <x:v>35</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C15" s="4" t="s">
-        <x:v>77</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D15" s="4" t="s">
-        <x:v>41</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E15" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F15" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G15" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H15" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I15" s="4"/>
       <x:c r="J15" s="4" t="s">
@@ -2875,10 +2883,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N15" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="O15" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="P15" s="4">
         <x:v>0</x:v>
@@ -2892,13 +2900,13 @@
         <x:v>201</x:v>
       </x:c>
       <x:c r="B16" s="4" t="s">
-        <x:v>69</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C16" s="4" t="s">
-        <x:v>83</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D16" s="4" t="s">
-        <x:v>90</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E16" s="4">
         <x:v>0</x:v>
@@ -2916,10 +2924,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="J16" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="K16" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="L16" s="4">
         <x:v>4</x:v>
@@ -2945,13 +2953,13 @@
         <x:v>202</x:v>
       </x:c>
       <x:c r="B17" s="4" t="s">
-        <x:v>21</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C17" s="4" t="s">
-        <x:v>83</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D17" s="4" t="s">
-        <x:v>90</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E17" s="4">
         <x:v>0</x:v>
@@ -2969,10 +2977,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="J17" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="K17" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="L17" s="4">
         <x:v>4</x:v>
@@ -2998,25 +3006,25 @@
         <x:v>203</x:v>
       </x:c>
       <x:c r="B18" s="4" t="s">
-        <x:v>72</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C18" s="4" t="s">
-        <x:v>77</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D18" s="4" t="s">
-        <x:v>41</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E18" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F18" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G18" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H18" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I18" s="4"/>
       <x:c r="J18" s="4" t="s">
@@ -3049,25 +3057,25 @@
         <x:v>204</x:v>
       </x:c>
       <x:c r="B19" s="4" t="s">
-        <x:v>73</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C19" s="4" t="s">
-        <x:v>77</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D19" s="4" t="s">
-        <x:v>41</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E19" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F19" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G19" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H19" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I19" s="4"/>
       <x:c r="J19" s="4" t="s">
@@ -3100,29 +3108,29 @@
         <x:v>205</x:v>
       </x:c>
       <x:c r="B20" s="4" t="s">
-        <x:v>70</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C20" s="4" t="s">
-        <x:v>77</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D20" s="4" t="s">
-        <x:v>41</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E20" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F20" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G20" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H20" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I20" s="4"/>
       <x:c r="J20" s="4" t="s">
-        <x:v>80</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="K20" s="4">
         <x:v>200</x:v>
@@ -3151,31 +3159,31 @@
         <x:v>300</x:v>
       </x:c>
       <x:c r="B21" s="4" t="s">
-        <x:v>22</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C21" s="4" t="s">
-        <x:v>95</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D21" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E21" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F21" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G21" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H21" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I21" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="J21" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="K21" s="4">
         <x:v>10</x:v>
@@ -3187,10 +3195,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N21" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="O21" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="P21" s="4">
         <x:v>0</x:v>
@@ -3204,31 +3212,31 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="B22" s="4" t="s">
-        <x:v>44</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C22" s="4" t="s">
-        <x:v>77</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D22" s="4" t="s">
-        <x:v>81</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E22" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F22" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G22" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H22" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I22" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="J22" s="4" t="s">
-        <x:v>81</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K22" s="4">
         <x:v>50</x:v>
@@ -3240,10 +3248,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N22" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="O22" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="P22" s="4">
         <x:v>0</x:v>
@@ -3257,31 +3265,31 @@
         <x:v>301</x:v>
       </x:c>
       <x:c r="B23" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C23" s="4" t="s">
-        <x:v>95</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D23" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E23" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F23" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G23" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H23" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I23" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="J23" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="K23" s="4">
         <x:v>20</x:v>
@@ -3293,10 +3301,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N23" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="O23" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="P23" s="4">
         <x:v>0</x:v>
@@ -3310,31 +3318,31 @@
         <x:v>401</x:v>
       </x:c>
       <x:c r="B24" s="4" t="s">
-        <x:v>23</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C24" s="4" t="s">
-        <x:v>77</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D24" s="4" t="s">
-        <x:v>81</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E24" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F24" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G24" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H24" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I24" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="J24" s="4" t="s">
-        <x:v>81</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K24" s="4">
         <x:v>100</x:v>
@@ -3346,10 +3354,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N24" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="O24" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="P24" s="4">
         <x:v>0</x:v>
@@ -3363,31 +3371,31 @@
         <x:v>302</x:v>
       </x:c>
       <x:c r="B25" s="4" t="s">
-        <x:v>89</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C25" s="4" t="s">
-        <x:v>95</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D25" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E25" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F25" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G25" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H25" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I25" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="J25" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="K25" s="4">
         <x:v>30</x:v>
@@ -3399,10 +3407,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N25" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="O25" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="P25" s="4">
         <x:v>0</x:v>
@@ -3416,31 +3424,31 @@
         <x:v>402</x:v>
       </x:c>
       <x:c r="B26" s="4" t="s">
-        <x:v>47</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C26" s="4" t="s">
-        <x:v>77</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D26" s="4" t="s">
-        <x:v>81</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E26" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F26" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G26" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H26" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I26" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="J26" s="4" t="s">
-        <x:v>81</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K26" s="4">
         <x:v>200</x:v>
@@ -3452,10 +3460,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N26" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="O26" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="P26" s="4">
         <x:v>0</x:v>
@@ -3469,31 +3477,31 @@
         <x:v>303</x:v>
       </x:c>
       <x:c r="B27" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C27" s="4" t="s">
-        <x:v>95</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D27" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E27" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F27" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G27" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H27" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I27" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="J27" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="K27" s="4">
         <x:v>40</x:v>
@@ -3505,10 +3513,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N27" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="O27" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="P27" s="4">
         <x:v>0</x:v>
@@ -3522,31 +3530,31 @@
         <x:v>403</x:v>
       </x:c>
       <x:c r="B28" s="4" t="s">
-        <x:v>8</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C28" s="4" t="s">
-        <x:v>77</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D28" s="4" t="s">
-        <x:v>81</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E28" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F28" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G28" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H28" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I28" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="J28" s="4" t="s">
-        <x:v>81</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K28" s="4">
         <x:v>300</x:v>
@@ -3558,10 +3566,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N28" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="O28" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="P28" s="4">
         <x:v>0</x:v>
@@ -3575,34 +3583,34 @@
         <x:v>501</x:v>
       </x:c>
       <x:c r="B29" s="4" t="s">
-        <x:v>27</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C29" s="4" t="s">
-        <x:v>95</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D29" s="4" t="s">
-        <x:v>85</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E29" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F29" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G29" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H29" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I29" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="J29" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="K29" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="L29" s="4">
         <x:v>0</x:v>
@@ -3611,10 +3619,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N29" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="O29" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="P29" s="4">
         <x:v>0</x:v>
@@ -3628,34 +3636,34 @@
         <x:v>502</x:v>
       </x:c>
       <x:c r="B30" s="4" t="s">
-        <x:v>45</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C30" s="4" t="s">
-        <x:v>95</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D30" s="4" t="s">
-        <x:v>85</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E30" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F30" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G30" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H30" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I30" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="J30" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="K30" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="L30" s="4">
         <x:v>1</x:v>
@@ -3664,10 +3672,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N30" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="O30" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="P30" s="4">
         <x:v>0</x:v>
@@ -3695,19 +3703,19 @@
   <x:sheetData>
     <x:row r="1" spans="1:5" ht="32.75">
       <x:c r="A1" s="6" t="s">
-        <x:v>91</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B1" s="6" t="s">
-        <x:v>24</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C1" s="6" t="s">
-        <x:v>2</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D1" s="6" t="s">
-        <x:v>86</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E1" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:5">
@@ -3715,7 +3723,7 @@
         <x:v>300</x:v>
       </x:c>
       <x:c r="B2" s="4" t="s">
-        <x:v>22</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C2" s="7">
         <x:v>1</x:v>
@@ -3732,7 +3740,7 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="B3" s="4" t="s">
-        <x:v>44</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C3" s="7">
         <x:v>1</x:v>
@@ -3749,7 +3757,7 @@
         <x:v>301</x:v>
       </x:c>
       <x:c r="B4" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C4" s="7">
         <x:v>1</x:v>
@@ -3766,7 +3774,7 @@
         <x:v>401</x:v>
       </x:c>
       <x:c r="B5" s="4" t="s">
-        <x:v>23</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C5" s="7">
         <x:v>1</x:v>
@@ -3783,7 +3791,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="4" t="s">
-        <x:v>68</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C6" s="7">
         <x:v>0.05</x:v>
@@ -3798,7 +3806,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B7" s="4" t="s">
-        <x:v>18</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C7" s="7">
         <x:v>0.05</x:v>
@@ -3828,7 +3836,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B9" s="4" t="s">
-        <x:v>33</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C9" s="7">
         <x:v>0.080000000000000004</x:v>
@@ -3843,7 +3851,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B10" s="4" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C10" s="7">
         <x:v>0.14999999999999999</x:v>
@@ -3873,7 +3881,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B12" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C12" s="7">
         <x:v>0.05</x:v>
@@ -3888,7 +3896,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B13" s="4" t="s">
-        <x:v>60</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C13" s="7">
         <x:v>0.080000000000000004</x:v>
@@ -3903,7 +3911,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B14" s="4" t="s">
-        <x:v>59</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C14" s="7">
         <x:v>0.080000000000000004</x:v>
@@ -3918,7 +3926,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B15" s="4" t="s">
-        <x:v>1</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C15" s="7">
         <x:v>0.14999999999999999</x:v>
@@ -3933,7 +3941,7 @@
         <x:v>302</x:v>
       </x:c>
       <x:c r="B16" s="4" t="s">
-        <x:v>89</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C16" s="7">
         <x:v>1</x:v>
@@ -3950,7 +3958,7 @@
         <x:v>402</x:v>
       </x:c>
       <x:c r="B17" s="4" t="s">
-        <x:v>47</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C17" s="7">
         <x:v>1</x:v>
@@ -3967,7 +3975,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B18" s="4" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C18" s="7">
         <x:v>0.020000000000000001</x:v>
@@ -3982,7 +3990,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B19" s="4" t="s">
-        <x:v>46</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C19" s="7">
         <x:v>0.020000000000000001</x:v>
@@ -3997,7 +4005,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B20" s="4" t="s">
-        <x:v>60</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C20" s="7">
         <x:v>0.20000000000000001</x:v>
@@ -4012,7 +4020,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B21" s="4" t="s">
-        <x:v>59</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C21" s="7">
         <x:v>0.20000000000000001</x:v>
@@ -4027,7 +4035,7 @@
         <x:v>303</x:v>
       </x:c>
       <x:c r="B22" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C22" s="7">
         <x:v>1</x:v>
@@ -4044,7 +4052,7 @@
         <x:v>403</x:v>
       </x:c>
       <x:c r="B23" s="4" t="s">
-        <x:v>8</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C23" s="7">
         <x:v>1</x:v>
@@ -4061,7 +4069,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B24" s="4" t="s">
-        <x:v>40</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C24" s="7">
         <x:v>0.14999999999999999</x:v>
@@ -4076,7 +4084,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B25" s="4" t="s">
-        <x:v>35</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C25" s="7">
         <x:v>0.14999999999999999</x:v>
@@ -4091,7 +4099,7 @@
         <x:v>501</x:v>
       </x:c>
       <x:c r="B26" s="4" t="s">
-        <x:v>27</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C26" s="7">
         <x:v>0.10000000000000001</x:v>
@@ -4106,7 +4114,7 @@
         <x:v>502</x:v>
       </x:c>
       <x:c r="B27" s="4" t="s">
-        <x:v>45</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C27" s="7">
         <x:v>1</x:v>
@@ -4139,13 +4147,13 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="6" t="s">
-        <x:v>67</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B1" s="6" t="s">
-        <x:v>55</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C1" s="6" t="s">
-        <x:v>61</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
@@ -4281,34 +4289,34 @@
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="32.75">
       <x:c r="A1" s="6" t="s">
-        <x:v>3</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B1" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C1" s="6" t="s">
-        <x:v>94</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="D1" s="6" t="s">
-        <x:v>29</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E1" s="6" t="s">
-        <x:v>28</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1" s="6" t="s">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G1" s="6" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H1" s="6" t="s">
-        <x:v>66</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I1" s="6" t="s">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="J1" s="6" t="s">
-        <x:v>88</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:10">
@@ -4319,7 +4327,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C2" s="7" t="s">
-        <x:v>56</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D2" s="7">
         <x:v>150</x:v>
@@ -4337,10 +4345,10 @@
         <x:v>0.10000000000000001</x:v>
       </x:c>
       <x:c r="I2" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="J2" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:10">
@@ -4351,7 +4359,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C3" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D3" s="7">
         <x:v>300</x:v>
@@ -4369,10 +4377,10 @@
         <x:v>0.12</x:v>
       </x:c>
       <x:c r="I3" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="J3" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:10">
@@ -4383,7 +4391,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C4" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D4" s="7">
         <x:v>450</x:v>
@@ -4401,10 +4409,10 @@
         <x:v>0.14000000000000001</x:v>
       </x:c>
       <x:c r="I4" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="J4" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:10">
@@ -4415,7 +4423,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C5" s="7" t="s">
-        <x:v>82</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D5" s="7">
         <x:v>350</x:v>
@@ -4433,10 +4441,10 @@
         <x:v>0.17000000000000001</x:v>
       </x:c>
       <x:c r="I5" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="J5" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10">
@@ -4447,7 +4455,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="7" t="s">
-        <x:v>19</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D6" s="7">
         <x:v>500</x:v>
@@ -4465,10 +4473,10 @@
         <x:v>0.070000000000000007</x:v>
       </x:c>
       <x:c r="I6" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="J6" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:10">
@@ -4511,7 +4519,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C8" s="7" t="s">
-        <x:v>42</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D8" s="7">
         <x:v>500</x:v>
@@ -4529,10 +4537,10 @@
         <x:v>0.19</x:v>
       </x:c>
       <x:c r="I8" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="J8" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:10">
@@ -4543,7 +4551,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C9" s="7" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D9" s="7">
         <x:v>650</x:v>
@@ -4561,10 +4569,10 @@
         <x:v>0.089999999999999991</x:v>
       </x:c>
       <x:c r="I9" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="J9" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:10">
@@ -4575,7 +4583,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C10" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D10" s="7">
         <x:v>900</x:v>
@@ -4607,7 +4615,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C11" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D11" s="7">
         <x:v>1500</x:v>
